--- a/excel/collective/zestawy_dla_uczniow/zestaw_047.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_047.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 1</t>
   </si>
@@ -61,511 +61,460 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Maja Sikorska</t>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>Kacper Wojciechowski</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>7,00</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>17,70</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,00</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,80</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>8,01</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>3,32</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>7,88</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>15,07</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>15,74</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>13,50</t>
+  </si>
+  <si>
+    <t>26,38</t>
+  </si>
+  <si>
+    <t>23,50</t>
+  </si>
+  <si>
+    <t>26,84</t>
+  </si>
+  <si>
+    <t>30,04</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>1,05</t>
+  </si>
+  <si>
+    <t>16,10</t>
+  </si>
+  <si>
+    <t>18,13</t>
+  </si>
+  <si>
+    <t>29,23</t>
+  </si>
+  <si>
+    <t>26,08</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Zawadzka</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Julia Lis</t>
+  </si>
+  <si>
+    <t>08.03.1999</t>
+  </si>
+  <si>
+    <t>10 392,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kowalski</t>
+  </si>
+  <si>
+    <t>06.04.1990</t>
+  </si>
+  <si>
+    <t>8 414,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>07.04.1976</t>
+  </si>
+  <si>
+    <t>9 561,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>05.09.1990</t>
+  </si>
+  <si>
+    <t>7 240,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>09.07.1985</t>
+  </si>
+  <si>
+    <t>13 432,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Szymański</t>
+  </si>
+  <si>
+    <t>08.01.1994</t>
+  </si>
+  <si>
+    <t>13 710,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kwiatkowski</t>
+  </si>
+  <si>
+    <t>08.04.2001</t>
+  </si>
+  <si>
+    <t>13 842,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>28.02.1999</t>
+  </si>
+  <si>
+    <t>14 804,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>20.07.1998</t>
+  </si>
+  <si>
+    <t>8 761,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kamiński</t>
+  </si>
+  <si>
+    <t>13.04.1983</t>
+  </si>
+  <si>
+    <t>10 470,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Zieliński</t>
+  </si>
+  <si>
+    <t>01.07.1981</t>
+  </si>
+  <si>
+    <t>2 983,00 zł</t>
   </si>
   <si>
     <t>Filip Kaczmarek</t>
   </si>
   <si>
-    <t>Antoni Kamiński</t>
-  </si>
-  <si>
-    <t>Zuzanna Lis</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalski</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,00</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>4,80</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,40</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,70</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>15,30</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>14,11</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>27,71</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>3,37</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>4,63</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>15,10</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>26,18</t>
-  </si>
-  <si>
-    <t>14,75</t>
-  </si>
-  <si>
-    <t>14,14</t>
-  </si>
-  <si>
-    <t>3,81</t>
-  </si>
-  <si>
-    <t>30,56</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>18,47</t>
-  </si>
-  <si>
-    <t>27,26</t>
-  </si>
-  <si>
-    <t>1,51</t>
-  </si>
-  <si>
-    <t>28,96</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Antoni Lewandowski</t>
-  </si>
-  <si>
-    <t>09.04.1995</t>
-  </si>
-  <si>
-    <t>14 469,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>05.10.2001</t>
-  </si>
-  <si>
-    <t>13 777,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kamiński</t>
-  </si>
-  <si>
-    <t>04.11.2005</t>
-  </si>
-  <si>
-    <t>14 662,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Jaworska</t>
-  </si>
-  <si>
-    <t>04.03.1988</t>
-  </si>
-  <si>
-    <t>14 528,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Sadowska</t>
-  </si>
-  <si>
-    <t>10.07.1992</t>
-  </si>
-  <si>
-    <t>12 326,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>21.04.2003</t>
-  </si>
-  <si>
-    <t>3 444,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Piotrowski</t>
-  </si>
-  <si>
-    <t>16.08.1987</t>
-  </si>
-  <si>
-    <t>14 950,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Mazur</t>
-  </si>
-  <si>
-    <t>18.08.1986</t>
-  </si>
-  <si>
-    <t>9 384,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Jaworska</t>
-  </si>
-  <si>
-    <t>08.05.1998</t>
-  </si>
-  <si>
-    <t>9 922,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Lis</t>
-  </si>
-  <si>
-    <t>17.05.1995</t>
-  </si>
-  <si>
-    <t>13 244,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Bednarska</t>
-  </si>
-  <si>
-    <t>04.01.1998</t>
-  </si>
-  <si>
-    <t>5 088,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>18.08.2004</t>
-  </si>
-  <si>
-    <t>13 572,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Rogalska</t>
-  </si>
-  <si>
-    <t>15.11.1978</t>
-  </si>
-  <si>
-    <t>9 484,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Król</t>
-  </si>
-  <si>
-    <t>06.06.1983</t>
-  </si>
-  <si>
-    <t>3 776,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>14.10.1986</t>
-  </si>
-  <si>
-    <t>8 238,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Król</t>
-  </si>
-  <si>
-    <t>17.04.1979</t>
-  </si>
-  <si>
-    <t>7 868,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kozłowski</t>
-  </si>
-  <si>
-    <t>24.04.1992</t>
-  </si>
-  <si>
-    <t>11 566,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Lewandowski</t>
-  </si>
-  <si>
-    <t>04.06.1985</t>
-  </si>
-  <si>
-    <t>3 488,00 zł</t>
+    <t>02.12.1988</t>
+  </si>
+  <si>
+    <t>11 185,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>26.03.1980</t>
+  </si>
+  <si>
+    <t>13 504,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -637,313 +586,295 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>1 771,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>986,00 zł</t>
+  </si>
+  <si>
+    <t>1 203,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 075,00 zł</t>
+  </si>
+  <si>
+    <t>1 269,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>970,00 zł</t>
+  </si>
+  <si>
+    <t>1 106,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>937,00 zł</t>
+  </si>
+  <si>
+    <t>1 059,00 zł</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>mazowieckie</t>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
+  </si>
+  <si>
+    <t>1 646,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 374,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 005,00 zł</t>
+  </si>
+  <si>
+    <t>1 377,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 396,00 zł</t>
+  </si>
+  <si>
+    <t>1 564,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>1 361,00 zł</t>
+  </si>
+  <si>
+    <t>1 497,00 zł</t>
+  </si>
+  <si>
+    <t>1 463,00 zł</t>
+  </si>
+  <si>
+    <t>1 829,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 089,00 zł</t>
+  </si>
+  <si>
+    <t>1 350,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 348,00 zł</t>
+  </si>
+  <si>
+    <t>1 752,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>718,00 zł</t>
+  </si>
+  <si>
+    <t>804,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 218,00 zł</t>
+  </si>
+  <si>
+    <t>1 510,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>839,00 zł</t>
-  </si>
-  <si>
-    <t>1 133,00 zł</t>
+    <t>706,00 zł</t>
+  </si>
+  <si>
+    <t>918,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>736,00 zł</t>
+  </si>
+  <si>
+    <t>920,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>912,00 zł</t>
+  </si>
+  <si>
+    <t>1 388,00 zł</t>
+  </si>
+  <si>
+    <t>1 707,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>500,00 zł</t>
+  </si>
+  <si>
+    <t>590,00 zł</t>
   </si>
   <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 246,00 zł</t>
-  </si>
-  <si>
-    <t>1 632,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 528,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>558,00 zł</t>
-  </si>
-  <si>
-    <t>770,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>615,00 zł</t>
-  </si>
-  <si>
-    <t>824,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 360,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 339,00 zł</t>
+  </si>
+  <si>
+    <t>1 687,00 zł</t>
+  </si>
+  <si>
+    <t>1 107,00 zł</t>
+  </si>
+  <si>
+    <t>1 550,00 zł</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 331,00 zł</t>
-  </si>
-  <si>
-    <t>1 797,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>501,00 zł</t>
-  </si>
-  <si>
-    <t>626,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 021,00 zł</t>
-  </si>
-  <si>
-    <t>1 123,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>935,00 zł</t>
-  </si>
-  <si>
-    <t>1 038,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 231,00 zł</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
-    <t>1 076,00 zł</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>1 951,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>606,00 zł</t>
-  </si>
-  <si>
-    <t>733,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
+    <t>1 081,00 zł</t>
+  </si>
+  <si>
+    <t>1 286,00 zł</t>
+  </si>
+  <si>
+    <t>1 167,00 zł</t>
+  </si>
+  <si>
+    <t>994,00 zł</t>
+  </si>
+  <si>
+    <t>1 113,00 zł</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 379,00 zł</t>
+  </si>
+  <si>
+    <t>1 600,00 zł</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 168,00 zł</t>
-  </si>
-  <si>
-    <t>1 413,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>914,00 zł</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 236,00 zł</t>
-  </si>
-  <si>
-    <t>1 483,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
-    <t>1 647,00 zł</t>
-  </si>
-  <si>
-    <t>752,00 zł</t>
-  </si>
-  <si>
-    <t>978,00 zł</t>
-  </si>
-  <si>
-    <t>819,00 zł</t>
-  </si>
-  <si>
-    <t>925,00 zł</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 691,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
-    <t>1 806,00 zł</t>
-  </si>
-  <si>
-    <t>1 036,00 zł</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
-    <t>1 583,00 zł</t>
+    <t>1 115,00 zł</t>
+  </si>
+  <si>
+    <t>1 472,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1500,19 +1431,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
         <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1521,19 +1452,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
         <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1542,19 +1473,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1563,19 +1494,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1584,16 +1515,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1608,16 +1539,16 @@
         <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1626,16 +1557,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -1647,16 +1578,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>6</v>
-      </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>6</v>
@@ -1671,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -1689,16 +1620,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>6</v>
@@ -1710,19 +1641,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
         <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1731,19 +1662,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
         <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1865,7 +1796,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1880,7 +1811,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1895,7 +1826,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1910,7 +1841,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1925,7 +1856,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1940,7 +1871,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2057,7 +1988,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2069,7 +2000,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2081,7 +2012,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2093,7 +2024,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2105,7 +2036,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2153,7 +2084,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2165,7 +2096,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2177,7 +2108,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2189,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2201,7 +2132,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2249,7 +2180,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2261,7 +2192,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2270,10 +2201,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2282,10 +2213,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2294,22 +2225,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2355,53 +2286,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2413,7 +2344,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2422,43 +2353,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2466,31 +2397,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2498,31 +2429,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2536,13 +2467,13 @@
         <v>112</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
@@ -2551,10 +2482,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2562,31 +2493,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>6</v>
-      </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2594,28 +2525,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2625,7 +2556,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2641,7 +2572,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2672,10 +2603,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2687,7 +2618,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2697,265 +2628,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B29" s="14" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2973,10 +2849,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2992,7 +2868,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3002,75 +2878,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3078,22 +2954,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3101,22 +2977,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3124,22 +3000,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3147,22 +3023,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3170,22 +3046,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3193,22 +3069,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3216,22 +3092,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3239,22 +3115,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3262,22 +3138,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3285,22 +3161,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3308,22 +3184,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3331,22 +3207,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3354,22 +3230,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3377,22 +3253,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3400,22 +3276,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3423,22 +3299,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3446,22 +3322,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3469,22 +3345,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3492,22 +3368,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3515,22 +3391,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3538,22 +3414,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3561,22 +3437,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3584,22 +3460,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3607,22 +3483,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3630,22 +3506,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>280</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3653,113 +3529,67 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>182</v>
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>311</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>312</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_047.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_047.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>7,00</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>17,70</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,00</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,80</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,01</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>3,32</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>7,88</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>15,07</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>15,74</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>13,50</t>
-  </si>
-  <si>
-    <t>26,38</t>
-  </si>
-  <si>
-    <t>23,50</t>
-  </si>
-  <si>
-    <t>26,84</t>
-  </si>
-  <si>
-    <t>30,04</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>1,05</t>
-  </si>
-  <si>
-    <t>16,10</t>
-  </si>
-  <si>
-    <t>18,13</t>
-  </si>
-  <si>
-    <t>29,23</t>
-  </si>
-  <si>
-    <t>26,08</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,117 +328,78 @@
     <t>08.03.1999</t>
   </si>
   <si>
-    <t>10 392,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kowalski</t>
   </si>
   <si>
     <t>06.04.1990</t>
   </si>
   <si>
-    <t>8 414,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kamiński</t>
   </si>
   <si>
     <t>07.04.1976</t>
   </si>
   <si>
-    <t>9 561,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kwiatkowski</t>
   </si>
   <si>
     <t>05.09.1990</t>
   </si>
   <si>
-    <t>7 240,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Wiśniewski</t>
   </si>
   <si>
     <t>09.07.1985</t>
   </si>
   <si>
-    <t>13 432,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Szymański</t>
   </si>
   <si>
     <t>08.01.1994</t>
   </si>
   <si>
-    <t>13 710,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
     <t>08.04.2001</t>
   </si>
   <si>
-    <t>13 842,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Zieliński</t>
   </si>
   <si>
     <t>28.02.1999</t>
   </si>
   <si>
-    <t>14 804,00 zł</t>
-  </si>
-  <si>
     <t>Julia Jaworska</t>
   </si>
   <si>
     <t>20.07.1998</t>
   </si>
   <si>
-    <t>8 761,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kamiński</t>
   </si>
   <si>
     <t>13.04.1983</t>
   </si>
   <si>
-    <t>10 470,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Zieliński</t>
   </si>
   <si>
     <t>01.07.1981</t>
   </si>
   <si>
-    <t>2 983,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kaczmarek</t>
   </si>
   <si>
     <t>02.12.1988</t>
   </si>
   <si>
-    <t>11 185,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Borkowska</t>
   </si>
   <si>
     <t>26.03.1980</t>
   </si>
   <si>
-    <t>13 504,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -529,9 +412,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -592,12 +472,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>986,00 zł</t>
-  </si>
-  <si>
-    <t>1 203,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -610,12 +484,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 075,00 zł</t>
-  </si>
-  <si>
-    <t>1 269,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -628,12 +496,6 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>970,00 zł</t>
-  </si>
-  <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -646,36 +508,18 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>937,00 zł</t>
-  </si>
-  <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>1 646,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>marzec</t>
   </si>
   <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 374,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -685,42 +529,18 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
-    <t>1 377,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 396,00 zł</t>
-  </si>
-  <si>
-    <t>1 564,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
-    <t>1 497,00 zł</t>
-  </si>
-  <si>
-    <t>1 463,00 zł</t>
-  </si>
-  <si>
-    <t>1 829,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -730,12 +550,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 089,00 zł</t>
-  </si>
-  <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -745,136 +559,52 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 348,00 zł</t>
-  </si>
-  <si>
-    <t>1 752,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
-    <t>804,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 218,00 zł</t>
-  </si>
-  <si>
-    <t>1 510,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>706,00 zł</t>
-  </si>
-  <si>
-    <t>918,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>736,00 zł</t>
-  </si>
-  <si>
-    <t>920,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>912,00 zł</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 707,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>500,00 zł</t>
-  </si>
-  <si>
-    <t>590,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 339,00 zł</t>
-  </si>
-  <si>
-    <t>1 687,00 zł</t>
-  </si>
-  <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 550,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
-    <t>994,00 zł</t>
-  </si>
-  <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
-  </si>
-  <si>
-    <t>1 115,00 zł</t>
-  </si>
-  <si>
-    <t>1 472,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -896,7 +626,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -953,14 +685,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -971,8 +703,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1003,30 +735,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,7 +1062,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,25 +1137,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1445,7 +1178,7 @@
       <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1466,7 +1199,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1487,7 +1220,7 @@
       <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1508,7 +1241,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1529,7 +1262,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1550,7 +1283,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1571,7 +1304,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1592,7 +1325,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1613,7 +1346,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1634,7 +1367,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1655,7 +1388,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1676,27 +1409,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1730,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1750,7 +1473,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1760,29 +1483,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1790,99 +1513,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>17.7</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.4</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.8</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.3</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1915,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1940,113 +1663,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.0099999999999998</v>
       </c>
       <c r="C15" s="3">
         <v>42</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.32</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>7.88</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>15.07</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15.74</v>
       </c>
       <c r="C19" s="3">
         <v>16</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2055,94 +1778,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13.5</v>
       </c>
       <c r="C24" s="3">
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>26.38</v>
       </c>
       <c r="C25" s="3">
         <v>29</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>23.5</v>
       </c>
       <c r="C26" s="3">
         <v>14</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>26.84</v>
       </c>
       <c r="C27" s="3">
         <v>29</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>30.039999999999999</v>
       </c>
       <c r="C28" s="3">
         <v>9</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2151,98 +1874,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.05</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>16.1</v>
       </c>
       <c r="C34" s="3">
         <v>22</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>18.13</v>
       </c>
       <c r="C35" s="3">
         <v>40</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>29.23</v>
       </c>
       <c r="C36" s="3">
         <v>47</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>26.079999999999998</v>
       </c>
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2265,7 +1988,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2285,90 +2008,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2391,16 +2114,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2423,16 +2146,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2455,16 +2178,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2487,16 +2210,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2519,16 +2242,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2551,40 +2274,40 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2617,222 +2340,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10392</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8414</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7240</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13432</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13710</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13842</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14804</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8761</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10470</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2983</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11185</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13504</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>165</v>
+      <c r="A26" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2867,86 +2584,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>170</v>
+      <c r="A1" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>187</v>
+      <c r="A15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2954,22 +2671,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="D16" s="7">
+        <v>986</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1203</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2977,22 +2694,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1075</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1269</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3000,22 +2717,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
+      </c>
+      <c r="D18" s="7">
+        <v>970</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3023,22 +2740,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
+      </c>
+      <c r="D19" s="7">
+        <v>937</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1059</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3046,22 +2763,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
+        <v>157</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1646</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3069,22 +2786,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>149</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1374</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3092,22 +2809,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1005</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1377</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3115,22 +2832,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>226</v>
+        <v>170</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1396</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1564</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3138,22 +2855,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>230</v>
+        <v>161</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1497</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3161,22 +2878,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1463</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1829</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3184,22 +2901,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>237</v>
+        <v>175</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1089</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1350</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3207,22 +2924,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>178</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1348</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1752</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3230,22 +2947,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>180</v>
+      </c>
+      <c r="D28" s="7">
+        <v>718</v>
+      </c>
+      <c r="E28" s="7">
+        <v>804</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3253,22 +2970,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1218</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1510</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3276,22 +2993,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>254</v>
+        <v>184</v>
+      </c>
+      <c r="D30" s="7">
+        <v>706</v>
+      </c>
+      <c r="E30" s="7">
+        <v>918</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3299,22 +3016,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>258</v>
+        <v>170</v>
+      </c>
+      <c r="D31" s="7">
+        <v>736</v>
+      </c>
+      <c r="E31" s="7">
+        <v>920</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3322,22 +3039,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
+      </c>
+      <c r="D32" s="7">
+        <v>912</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1195</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3345,22 +3062,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>262</v>
+        <v>149</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1388</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1707</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3368,22 +3085,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>266</v>
+        <v>189</v>
+      </c>
+      <c r="D34" s="7">
+        <v>500</v>
+      </c>
+      <c r="E34" s="7">
+        <v>590</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3391,22 +3108,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>270</v>
+        <v>191</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1339</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1687</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3414,22 +3131,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>272</v>
+        <v>168</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1107</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1550</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3437,22 +3154,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>275</v>
+        <v>192</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1081</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1286</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3460,22 +3177,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>222</v>
+        <v>149</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1167</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1377</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3483,22 +3200,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>278</v>
+        <v>189</v>
+      </c>
+      <c r="D39" s="7">
+        <v>994</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1113</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3506,22 +3223,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>281</v>
+        <v>193</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1600</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3529,68 +3246,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>284</v>
+        <v>193</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1115</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1472</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>165</v>
+      <c r="A44" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>286</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>288</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>289</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_047.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_047.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jan Kaczmarek</t>
-  </si>
-  <si>
-    <t>Jan Szymański</t>
-  </si>
-  <si>
-    <t>Kacper Wojciechowski</t>
-  </si>
-  <si>
-    <t>Lena Kubiak</t>
-  </si>
-  <si>
-    <t>Zuzanna Sikorska</t>
+    <t>Szymon Kamiński</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>Antoni Kowalczyk</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>Filip Dąbrowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 47 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -148,19 +152,19 @@
     <t>Pędzelek</t>
   </si>
   <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,34 +266,52 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Szymański</t>
   </si>
   <si>
     <t>Zuzanna</t>
   </si>
   <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -322,82 +347,49 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Julia Lis</t>
-  </si>
-  <si>
-    <t>08.03.1999</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>06.04.1990</t>
-  </si>
-  <si>
-    <t>Filip Kamiński</t>
-  </si>
-  <si>
-    <t>07.04.1976</t>
-  </si>
-  <si>
-    <t>Jan Kwiatkowski</t>
-  </si>
-  <si>
-    <t>05.09.1990</t>
-  </si>
-  <si>
-    <t>Wojciech Wiśniewski</t>
-  </si>
-  <si>
-    <t>09.07.1985</t>
-  </si>
-  <si>
-    <t>Wojciech Szymański</t>
-  </si>
-  <si>
-    <t>08.01.1994</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>08.04.2001</t>
-  </si>
-  <si>
-    <t>Wojciech Zieliński</t>
-  </si>
-  <si>
-    <t>28.02.1999</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>20.07.1998</t>
-  </si>
-  <si>
-    <t>Szymon Kamiński</t>
-  </si>
-  <si>
-    <t>13.04.1983</t>
-  </si>
-  <si>
-    <t>Antoni Zieliński</t>
-  </si>
-  <si>
-    <t>01.07.1981</t>
-  </si>
-  <si>
-    <t>Filip Kaczmarek</t>
-  </si>
-  <si>
-    <t>02.12.1988</t>
-  </si>
-  <si>
-    <t>Hanna Borkowska</t>
-  </si>
-  <si>
-    <t>26.03.1980</t>
+    <t>Adam Piotrowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Sadowska</t>
+  </si>
+  <si>
+    <t>Adam Kowalczyk</t>
+  </si>
+  <si>
+    <t>Antoni Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Zuzanna Olszewska</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub Kaczmarek</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -412,7 +404,73 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Aleksander Kozłowski</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Maja Kubiak</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>Zuzanna Wójcik</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
+  </si>
+  <si>
+    <t>Filip Lewandowski</t>
+  </si>
+  <si>
+    <t>Amelia Malinowska</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>Wojciech Krawczyk</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>Adam Jankowski</t>
+  </si>
+  <si>
+    <t>Antoni Krawczyk</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -466,145 +524,154 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>Jan Kowalski</t>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
+    <t>Smart TV 55"</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -676,7 +743,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +766,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -735,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -746,13 +807,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1059,7 +1119,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1164,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -1173,10 +1233,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1188,16 +1248,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1206,10 +1266,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1218,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1227,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1248,19 +1308,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1269,19 +1329,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>6</v>
       </c>
       <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1290,19 +1350,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
       <c r="E23" s="3">
         <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1314,16 +1374,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1332,19 +1392,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1353,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1377,16 +1437,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>6</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1395,19 +1455,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
       <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1420,6 +1480,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1453,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1473,7 +1539,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1483,29 +1549,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1513,99 +1579,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4.6</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>17.7</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.3</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>21.6</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.9</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.4</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.3</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.9</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1622,10 +1688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1638,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1663,27 +1729,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1691,85 +1757,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>8.0099999999999998</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24.38</v>
       </c>
       <c r="C15" s="3">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3.32</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.52</v>
       </c>
       <c r="C16" s="3">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>7.88</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13.07</v>
       </c>
       <c r="C17" s="3">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>15.07</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.37</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>15.74</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>21.69</v>
       </c>
       <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1778,8 +1844,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1787,85 +1853,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13.5</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>27.91</v>
       </c>
       <c r="C24" s="3">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>26.38</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>19.65</v>
       </c>
       <c r="C25" s="3">
-        <v>29</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>23.5</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30.4</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>26.84</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6.36</v>
       </c>
       <c r="C27" s="3">
-        <v>29</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>30.039999999999999</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>14.58</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1874,8 +1940,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1883,89 +1949,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1.05</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>21.02</v>
       </c>
       <c r="C33" s="3">
-        <v>24</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>16.1</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>13.4</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>18.13</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>17.039999999999999</v>
       </c>
       <c r="C35" s="3">
-        <v>40</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>29.23</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.14</v>
       </c>
       <c r="C36" s="3">
-        <v>47</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>26.079999999999998</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>25.16</v>
       </c>
       <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1985,10 +2059,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2008,111 +2082,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2120,31 +2194,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2152,31 +2226,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2184,19 +2258,19 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
@@ -2205,10 +2279,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2216,16 +2290,16 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -2234,10 +2308,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2248,28 +2322,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
-        <v>6</v>
-      </c>
       <c r="G17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2278,42 +2352,106 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2326,10 +2464,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2340,216 +2478,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>91</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10392</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4870</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8414</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3424</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9561</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6036</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>7240</v>
+        <v>111</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C14" s="8">
+        <v>11656</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13432</v>
+        <v>112</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11479</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13710</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4788</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13842</v>
+        <v>114</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3063</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="7">
-        <v>14804</v>
+      <c r="B18" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5047</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8761</v>
+      <c r="B19" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C19" s="8">
+        <v>10657</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10470</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5725</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2983</v>
+        <v>118</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12558</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11185</v>
+        <v>119</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5750</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="7">
-        <v>13504</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C24" s="8">
+        <v>14530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3451</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="A28" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2566,10 +2726,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="3">
+        <v>131</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3">
+        <v>162</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="3">
+        <v>107</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3">
+        <v>172</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3">
+        <v>182</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3">
+        <v>158</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>131</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3">
+        <v>153</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3">
+        <v>135</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3">
+        <v>177</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="3">
+        <v>162</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="3">
+        <v>166</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="3">
+        <v>177</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="3">
+        <v>167</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="3">
+        <v>171</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="3">
+        <v>95</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="3">
+        <v>159</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="3">
+        <v>146</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2584,86 +2973,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>130</v>
+      <c r="A1" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2671,22 +3060,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="7">
-        <v>986</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1203</v>
+        <v>168</v>
+      </c>
+      <c r="D16" s="8">
+        <v>908</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1180</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2694,22 +3083,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1075</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1269</v>
+        <v>172</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1007</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1289</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2717,22 +3106,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="7">
-        <v>970</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1106</v>
+        <v>176</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1238</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1486</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2740,22 +3129,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="7">
-        <v>937</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1059</v>
+        <v>179</v>
+      </c>
+      <c r="D19" s="8">
+        <v>641</v>
+      </c>
+      <c r="E19" s="8">
+        <v>814</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2763,22 +3152,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1349</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1646</v>
+        <v>182</v>
+      </c>
+      <c r="D20" s="8">
+        <v>698</v>
+      </c>
+      <c r="E20" s="8">
+        <v>886</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2786,22 +3175,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1195</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1374</v>
+        <v>184</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1464</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1742</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2809,22 +3198,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1005</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1377</v>
+        <v>187</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1248</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1585</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2832,22 +3221,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1396</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1564</v>
+        <v>190</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1079</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1489</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2855,22 +3244,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1361</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1497</v>
+        <v>192</v>
+      </c>
+      <c r="D24" s="8">
+        <v>771</v>
+      </c>
+      <c r="E24" s="8">
+        <v>987</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2878,22 +3267,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1463</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1829</v>
+        <v>192</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1456</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1936</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2901,22 +3290,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1089</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1350</v>
+        <v>198</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1485</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1723</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2924,22 +3313,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1348</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1752</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1199</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1643</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2947,22 +3336,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="7">
-        <v>718</v>
-      </c>
-      <c r="E28" s="7">
-        <v>804</v>
+        <v>176</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1192</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1383</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2970,22 +3359,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1218</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1510</v>
+        <v>200</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1107</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1251</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2993,22 +3382,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7">
-        <v>706</v>
-      </c>
-      <c r="E30" s="7">
-        <v>918</v>
+        <v>201</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1482</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1853</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3016,22 +3405,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="7">
-        <v>736</v>
-      </c>
-      <c r="E31" s="7">
-        <v>920</v>
+        <v>182</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1278</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1521</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3039,22 +3428,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="7">
-        <v>912</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1195</v>
+        <v>190</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1290</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1754</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3062,22 +3451,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1388</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1707</v>
+        <v>204</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1005</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1266</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3085,22 +3474,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="7">
-        <v>500</v>
-      </c>
-      <c r="E34" s="7">
-        <v>590</v>
+        <v>207</v>
+      </c>
+      <c r="D34" s="8">
+        <v>672</v>
+      </c>
+      <c r="E34" s="8">
+        <v>800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3108,22 +3497,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1339</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1687</v>
+        <v>182</v>
+      </c>
+      <c r="D35" s="8">
+        <v>720</v>
+      </c>
+      <c r="E35" s="8">
+        <v>878</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3131,22 +3520,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1107</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1550</v>
+        <v>172</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1138</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1502</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3154,22 +3543,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1081</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1286</v>
+        <v>204</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1314</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1485</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3177,22 +3566,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1167</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1377</v>
+        <v>211</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1209</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1499</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3200,22 +3589,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1159</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1518</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D39" s="7">
-        <v>994</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1113</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3223,22 +3612,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1379</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1600</v>
+        <v>213</v>
+      </c>
+      <c r="D40" s="8">
+        <v>576</v>
+      </c>
+      <c r="E40" s="8">
+        <v>732</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3246,58 +3635,81 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1115</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1472</v>
+        <v>215</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1111</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1422</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>126</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1246</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1682</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="6"/>
+      <c r="A45" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
